--- a/単体テスト/社員情報編集画面.xlsx
+++ b/単体テスト/社員情報編集画面.xlsx
@@ -5,15 +5,15 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ree\Desktop\employee_info_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ree\Desktop\employee_info_project\単体テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F88F94-9C91-491B-8083-8384165EFB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F6E4AC-606D-4A55-9B1E-2EDE62285952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="初期表示" sheetId="166" r:id="rId1"/>
+    <sheet name="新規登録" sheetId="166" r:id="rId1"/>
     <sheet name="更新" sheetId="169" r:id="rId2"/>
   </sheets>
   <definedNames>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="94">
   <si>
     <t>作成者</t>
   </si>
@@ -447,10 +447,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>パスワードが13文字以上でエラーになる</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>E-Mailは入力可能か</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -588,6 +584,72 @@
   </si>
   <si>
     <t>画面上の値とDBから取ってきた値が同じか</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>年齢は選択可能か</t>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パスワードが10文字以上でエラーになる</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パスワードが8文字以上10文字未満で入力する</t>
+    <rPh sb="9" eb="11">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ミマン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>社員管理システム</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>飯塚</t>
+    <rPh sb="0" eb="2">
+      <t>イイヅカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>社員情報編集画面（新規追加）</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ツイカ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -951,9 +1013,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -974,6 +1033,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1325,7 +1387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:B2"/>
@@ -1343,48 +1405,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="37" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="42"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="41"/>
       <c r="N1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="3"/>
+      <c r="O1" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="P1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="Q1" s="12"/>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="41"/>
       <c r="N2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1468,8 +1536,8 @@
       <c r="M5" s="24"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
     </row>
     <row r="6" spans="1:17" ht="11.25" customHeight="1">
       <c r="A6" s="15"/>
@@ -2082,7 +2150,7 @@
       <c r="F32" s="23"/>
       <c r="G32" s="24"/>
       <c r="H32" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I32" s="23"/>
       <c r="J32" s="23"/>
@@ -2098,14 +2166,14 @@
       <c r="A33" s="18"/>
       <c r="B33" s="21"/>
       <c r="C33" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D33" s="23"/>
       <c r="E33" s="23"/>
       <c r="F33" s="23"/>
       <c r="G33" s="24"/>
       <c r="H33" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I33" s="23"/>
       <c r="J33" s="23"/>
@@ -2144,14 +2212,14 @@
       <c r="A35" s="15"/>
       <c r="B35" s="21"/>
       <c r="C35" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D35" s="23"/>
       <c r="E35" s="23"/>
       <c r="F35" s="23"/>
       <c r="G35" s="24"/>
       <c r="H35" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I35" s="23"/>
       <c r="J35" s="23"/>
@@ -2167,14 +2235,14 @@
       <c r="A36" s="18"/>
       <c r="B36" s="21"/>
       <c r="C36" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D36" s="23"/>
       <c r="E36" s="23"/>
       <c r="F36" s="23"/>
       <c r="G36" s="24"/>
       <c r="H36" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I36" s="23"/>
       <c r="J36" s="23"/>
@@ -2213,14 +2281,14 @@
       <c r="A38" s="15"/>
       <c r="B38" s="21"/>
       <c r="C38" s="22" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D38" s="23"/>
       <c r="E38" s="23"/>
       <c r="F38" s="23"/>
       <c r="G38" s="24"/>
       <c r="H38" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I38" s="23"/>
       <c r="J38" s="23"/>
@@ -2236,14 +2304,14 @@
       <c r="A39" s="18"/>
       <c r="B39" s="21"/>
       <c r="C39" s="22" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="D39" s="23"/>
       <c r="E39" s="23"/>
       <c r="F39" s="23"/>
       <c r="G39" s="24"/>
       <c r="H39" s="22" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="I39" s="23"/>
       <c r="J39" s="23"/>
@@ -2256,168 +2324,168 @@
       <c r="Q39" s="27"/>
     </row>
     <row r="40" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A40" s="18"/>
+      <c r="A40" s="15"/>
       <c r="B40" s="21"/>
       <c r="C40" s="22" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="D40" s="23"/>
       <c r="E40" s="23"/>
       <c r="F40" s="23"/>
       <c r="G40" s="24"/>
       <c r="H40" s="22" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="I40" s="23"/>
       <c r="J40" s="23"/>
       <c r="K40" s="23"/>
       <c r="L40" s="23"/>
       <c r="M40" s="24"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
       <c r="P40" s="27"/>
       <c r="Q40" s="27"/>
     </row>
     <row r="41" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A41" s="15"/>
+      <c r="A41" s="18"/>
       <c r="B41" s="21"/>
       <c r="C41" s="22" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D41" s="23"/>
       <c r="E41" s="23"/>
       <c r="F41" s="23"/>
       <c r="G41" s="24"/>
       <c r="H41" s="22" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="I41" s="23"/>
       <c r="J41" s="23"/>
       <c r="K41" s="23"/>
       <c r="L41" s="23"/>
       <c r="M41" s="24"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
       <c r="P41" s="27"/>
       <c r="Q41" s="27"/>
     </row>
     <row r="42" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A42" s="18"/>
+      <c r="A42" s="15"/>
       <c r="B42" s="21"/>
       <c r="C42" s="22" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="D42" s="23"/>
       <c r="E42" s="23"/>
       <c r="F42" s="23"/>
       <c r="G42" s="24"/>
       <c r="H42" s="22" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="I42" s="23"/>
       <c r="J42" s="23"/>
       <c r="K42" s="23"/>
       <c r="L42" s="23"/>
       <c r="M42" s="24"/>
-      <c r="N42" s="18"/>
-      <c r="O42" s="18"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
       <c r="P42" s="27"/>
       <c r="Q42" s="27"/>
     </row>
     <row r="43" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A43" s="15"/>
+      <c r="A43" s="18"/>
       <c r="B43" s="21"/>
       <c r="C43" s="22" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="D43" s="23"/>
       <c r="E43" s="23"/>
       <c r="F43" s="23"/>
       <c r="G43" s="24"/>
       <c r="H43" s="22" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
       <c r="K43" s="23"/>
       <c r="L43" s="23"/>
       <c r="M43" s="24"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="18"/>
       <c r="P43" s="27"/>
       <c r="Q43" s="27"/>
     </row>
     <row r="44" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A44" s="18"/>
+      <c r="A44" s="15"/>
       <c r="B44" s="21"/>
       <c r="C44" s="22" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
       <c r="F44" s="23"/>
       <c r="G44" s="24"/>
       <c r="H44" s="22" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="I44" s="23"/>
       <c r="J44" s="23"/>
       <c r="K44" s="23"/>
       <c r="L44" s="23"/>
       <c r="M44" s="24"/>
-      <c r="N44" s="18"/>
-      <c r="O44" s="18"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="15"/>
       <c r="P44" s="27"/>
       <c r="Q44" s="27"/>
     </row>
     <row r="45" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A45" s="15"/>
+      <c r="A45" s="18"/>
       <c r="B45" s="21"/>
       <c r="C45" s="22" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
       <c r="F45" s="23"/>
       <c r="G45" s="24"/>
       <c r="H45" s="22" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="I45" s="23"/>
       <c r="J45" s="23"/>
       <c r="K45" s="23"/>
       <c r="L45" s="23"/>
       <c r="M45" s="24"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="15"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="18"/>
       <c r="P45" s="27"/>
       <c r="Q45" s="27"/>
     </row>
     <row r="46" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A46" s="18"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="21"/>
       <c r="C46" s="22" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D46" s="23"/>
       <c r="E46" s="23"/>
       <c r="F46" s="23"/>
       <c r="G46" s="24"/>
       <c r="H46" s="22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I46" s="23"/>
       <c r="J46" s="23"/>
       <c r="K46" s="23"/>
       <c r="L46" s="23"/>
       <c r="M46" s="24"/>
-      <c r="N46" s="18"/>
-      <c r="O46" s="18"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="15"/>
       <c r="P46" s="27"/>
       <c r="Q46" s="27"/>
     </row>
     <row r="47" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A47" s="15"/>
+      <c r="A47" s="18"/>
       <c r="B47" s="21"/>
       <c r="C47" s="22" t="s">
         <v>58</v>
@@ -2427,38 +2495,38 @@
       <c r="F47" s="23"/>
       <c r="G47" s="24"/>
       <c r="H47" s="22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I47" s="23"/>
       <c r="J47" s="23"/>
       <c r="K47" s="23"/>
       <c r="L47" s="23"/>
       <c r="M47" s="24"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="15"/>
+      <c r="N47" s="18"/>
+      <c r="O47" s="18"/>
       <c r="P47" s="27"/>
       <c r="Q47" s="27"/>
     </row>
     <row r="48" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A48" s="18"/>
+      <c r="A48" s="15"/>
       <c r="B48" s="21"/>
       <c r="C48" s="22" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D48" s="23"/>
       <c r="E48" s="23"/>
       <c r="F48" s="23"/>
       <c r="G48" s="24"/>
       <c r="H48" s="22" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="I48" s="23"/>
       <c r="J48" s="23"/>
       <c r="K48" s="23"/>
       <c r="L48" s="23"/>
       <c r="M48" s="24"/>
-      <c r="N48" s="18"/>
-      <c r="O48" s="18"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
       <c r="P48" s="27"/>
       <c r="Q48" s="27"/>
     </row>
@@ -2466,14 +2534,14 @@
       <c r="A49" s="15"/>
       <c r="B49" s="21"/>
       <c r="C49" s="22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D49" s="23"/>
       <c r="E49" s="23"/>
       <c r="F49" s="23"/>
       <c r="G49" s="24"/>
       <c r="H49" s="22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I49" s="23"/>
       <c r="J49" s="23"/>
@@ -2496,7 +2564,7 @@
       <c r="F50" s="23"/>
       <c r="G50" s="24"/>
       <c r="H50" s="22" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="I50" s="23"/>
       <c r="J50" s="23"/>
@@ -2510,22 +2578,18 @@
     </row>
     <row r="51" spans="1:17" ht="11.25" customHeight="1">
       <c r="A51" s="15"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="23"/>
-      <c r="M51" s="24"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="27"/>
       <c r="N51" s="15"/>
       <c r="O51" s="15"/>
       <c r="P51" s="27"/>
@@ -2854,62 +2918,36 @@
       <c r="P68" s="27"/>
       <c r="Q68" s="27"/>
     </row>
-    <row r="69" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A69" s="15"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="27"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="27"/>
-      <c r="J69" s="27"/>
-      <c r="K69" s="27"/>
-      <c r="L69" s="27"/>
-      <c r="M69" s="27"/>
-      <c r="N69" s="15"/>
-      <c r="O69" s="15"/>
-      <c r="P69" s="27"/>
-      <c r="Q69" s="27"/>
-    </row>
   </sheetData>
-  <mergeCells count="201">
+  <mergeCells count="198">
     <mergeCell ref="C33:G33"/>
     <mergeCell ref="H33:M33"/>
     <mergeCell ref="P33:Q33"/>
     <mergeCell ref="C36:G36"/>
     <mergeCell ref="H36:M36"/>
     <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:M39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:M46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:M48"/>
-    <mergeCell ref="P48:Q48"/>
     <mergeCell ref="C34:G34"/>
     <mergeCell ref="H34:M34"/>
     <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:M40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:M43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:M45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:M47"/>
+    <mergeCell ref="P47:Q47"/>
     <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="P15:Q15"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
@@ -2927,19 +2965,13 @@
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="H9:M9"/>
     <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="H5:M5"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="C24:G24"/>
     <mergeCell ref="H18:M18"/>
@@ -2955,6 +2987,10 @@
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="H23:M23"/>
     <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="P24:Q24"/>
     <mergeCell ref="H30:M30"/>
     <mergeCell ref="P30:Q30"/>
     <mergeCell ref="H32:M32"/>
@@ -2970,82 +3006,88 @@
     <mergeCell ref="C31:G31"/>
     <mergeCell ref="H31:M31"/>
     <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="H41:M41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="H43:M43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H40:M40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="H42:M42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C42:G42"/>
     <mergeCell ref="H35:M35"/>
     <mergeCell ref="P35:Q35"/>
     <mergeCell ref="H38:M38"/>
     <mergeCell ref="P38:Q38"/>
     <mergeCell ref="C35:G35"/>
     <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:M42"/>
-    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:M41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:M39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="H48:M48"/>
+    <mergeCell ref="P48:Q48"/>
     <mergeCell ref="H49:M49"/>
     <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="H46:M46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H52:M52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="H53:M53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="C53:G53"/>
     <mergeCell ref="H50:M50"/>
     <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H51:M51"/>
+    <mergeCell ref="P51:Q51"/>
     <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H45:M45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="H47:M47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H53:M53"/>
-    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H56:M56"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="H57:M57"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="C57:G57"/>
     <mergeCell ref="H54:M54"/>
     <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H55:M55"/>
+    <mergeCell ref="P55:Q55"/>
     <mergeCell ref="C54:G54"/>
-    <mergeCell ref="H51:M51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="H52:M52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H57:M57"/>
-    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H60:M60"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="H61:M61"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="C61:G61"/>
     <mergeCell ref="H58:M58"/>
     <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H59:M59"/>
+    <mergeCell ref="P59:Q59"/>
     <mergeCell ref="C58:G58"/>
-    <mergeCell ref="H55:M55"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="H56:M56"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="H61:M61"/>
-    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H65:M65"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="C65:G65"/>
     <mergeCell ref="H62:M62"/>
     <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="H59:M59"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="H60:M60"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="H66:M66"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="C66:G66"/>
     <mergeCell ref="H63:M63"/>
     <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="H64:M64"/>
-    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="C62:G62"/>
     <mergeCell ref="C63:G63"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="H69:M69"/>
-    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:M68"/>
+    <mergeCell ref="P68:Q68"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
@@ -3059,14 +3101,14 @@
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H66:M66"/>
+    <mergeCell ref="P66:Q66"/>
     <mergeCell ref="H67:M67"/>
     <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="H68:M68"/>
-    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="C66:G66"/>
     <mergeCell ref="C67:G67"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="H65:M65"/>
-    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="H64:M64"/>
+    <mergeCell ref="P64:Q64"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="H27:M27"/>
     <mergeCell ref="P27:Q27"/>
@@ -3089,7 +3131,7 @@
   <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:M1"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -3104,48 +3146,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="37" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="42"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="41"/>
       <c r="N1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="3"/>
+      <c r="O1" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="P1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="Q1" s="12"/>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="41"/>
       <c r="N2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3210,7 +3258,7 @@
     <row r="5" spans="1:17" ht="11.25" customHeight="1">
       <c r="A5" s="19"/>
       <c r="B5" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" s="31" t="s">
         <v>14</v>
@@ -3220,7 +3268,7 @@
       <c r="F5" s="32"/>
       <c r="G5" s="33"/>
       <c r="H5" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I5" s="23"/>
       <c r="J5" s="23"/>
@@ -3229,8 +3277,8 @@
       <c r="M5" s="24"/>
       <c r="N5" s="19"/>
       <c r="O5" s="19"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
     </row>
     <row r="6" spans="1:17" ht="11.25" customHeight="1">
       <c r="A6" s="18"/>
@@ -3243,7 +3291,7 @@
       <c r="F6" s="23"/>
       <c r="G6" s="24"/>
       <c r="H6" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
@@ -3289,7 +3337,7 @@
       <c r="F8" s="23"/>
       <c r="G8" s="24"/>
       <c r="H8" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I8" s="23"/>
       <c r="J8" s="23"/>
@@ -3312,7 +3360,7 @@
       <c r="F9" s="23"/>
       <c r="G9" s="24"/>
       <c r="H9" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I9" s="23"/>
       <c r="J9" s="23"/>
@@ -3335,7 +3383,7 @@
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I10" s="23"/>
       <c r="J10" s="23"/>
@@ -3358,7 +3406,7 @@
       <c r="F11" s="23"/>
       <c r="G11" s="24"/>
       <c r="H11" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I11" s="23"/>
       <c r="J11" s="23"/>
@@ -3381,7 +3429,7 @@
       <c r="F12" s="23"/>
       <c r="G12" s="24"/>
       <c r="H12" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
@@ -3404,7 +3452,7 @@
       <c r="F13" s="23"/>
       <c r="G13" s="24"/>
       <c r="H13" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
@@ -3427,7 +3475,7 @@
       <c r="F14" s="23"/>
       <c r="G14" s="24"/>
       <c r="H14" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I14" s="23"/>
       <c r="J14" s="23"/>
@@ -3450,7 +3498,7 @@
       <c r="F15" s="23"/>
       <c r="G15" s="24"/>
       <c r="H15" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I15" s="23"/>
       <c r="J15" s="23"/>
@@ -3473,7 +3521,7 @@
       <c r="F16" s="23"/>
       <c r="G16" s="24"/>
       <c r="H16" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I16" s="23"/>
       <c r="J16" s="23"/>
@@ -3496,7 +3544,7 @@
       <c r="F17" s="23"/>
       <c r="G17" s="24"/>
       <c r="H17" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I17" s="23"/>
       <c r="J17" s="23"/>
@@ -3519,7 +3567,7 @@
       <c r="F18" s="23"/>
       <c r="G18" s="24"/>
       <c r="H18" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
@@ -3534,7 +3582,7 @@
     <row r="19" spans="1:17" ht="11.25" customHeight="1">
       <c r="A19" s="18"/>
       <c r="B19" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>30</v>
@@ -3843,7 +3891,7 @@
       <c r="F32" s="23"/>
       <c r="G32" s="24"/>
       <c r="H32" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I32" s="23"/>
       <c r="J32" s="23"/>
@@ -3859,14 +3907,14 @@
       <c r="A33" s="18"/>
       <c r="B33" s="21"/>
       <c r="C33" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D33" s="23"/>
       <c r="E33" s="23"/>
       <c r="F33" s="23"/>
       <c r="G33" s="24"/>
       <c r="H33" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I33" s="23"/>
       <c r="J33" s="23"/>
@@ -3905,14 +3953,14 @@
       <c r="A35" s="18"/>
       <c r="B35" s="21"/>
       <c r="C35" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D35" s="23"/>
       <c r="E35" s="23"/>
       <c r="F35" s="23"/>
       <c r="G35" s="24"/>
       <c r="H35" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I35" s="23"/>
       <c r="J35" s="23"/>
@@ -3928,14 +3976,14 @@
       <c r="A36" s="18"/>
       <c r="B36" s="21"/>
       <c r="C36" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D36" s="23"/>
       <c r="E36" s="23"/>
       <c r="F36" s="23"/>
       <c r="G36" s="24"/>
       <c r="H36" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I36" s="23"/>
       <c r="J36" s="23"/>
@@ -3974,14 +4022,14 @@
       <c r="A38" s="18"/>
       <c r="B38" s="21"/>
       <c r="C38" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D38" s="23"/>
       <c r="E38" s="23"/>
       <c r="F38" s="23"/>
       <c r="G38" s="24"/>
       <c r="H38" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I38" s="23"/>
       <c r="J38" s="23"/>
@@ -3997,14 +4045,14 @@
       <c r="A39" s="18"/>
       <c r="B39" s="21"/>
       <c r="C39" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D39" s="23"/>
       <c r="E39" s="23"/>
       <c r="F39" s="23"/>
       <c r="G39" s="24"/>
       <c r="H39" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I39" s="23"/>
       <c r="J39" s="23"/>
@@ -4043,14 +4091,14 @@
       <c r="A41" s="18"/>
       <c r="B41" s="21"/>
       <c r="C41" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D41" s="23"/>
       <c r="E41" s="23"/>
       <c r="F41" s="23"/>
       <c r="G41" s="24"/>
       <c r="H41" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I41" s="23"/>
       <c r="J41" s="23"/>
@@ -4096,7 +4144,7 @@
       <c r="F43" s="23"/>
       <c r="G43" s="24"/>
       <c r="H43" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
@@ -4142,7 +4190,7 @@
       <c r="F45" s="23"/>
       <c r="G45" s="24"/>
       <c r="H45" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I45" s="23"/>
       <c r="J45" s="23"/>
@@ -4280,7 +4328,7 @@
       <c r="F51" s="23"/>
       <c r="G51" s="24"/>
       <c r="H51" s="22" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="I51" s="23"/>
       <c r="J51" s="23"/>
@@ -4817,8 +4865,6 @@
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="H10:M10"/>
     <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:M7"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="H8:M8"/>
@@ -4837,6 +4883,8 @@
     <mergeCell ref="F2:M2"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="H4:M4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:M7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
